--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 6.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb -- 20 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -551,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>0.59</v>
@@ -638,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -658,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -698,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -718,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -778,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -818,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -838,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -858,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -878,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -898,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1018,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1038,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1078,7 +1081,7 @@
         <v>25.17</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1098,7 +1101,7 @@
         <v>13.63</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1118,7 +1121,7 @@
         <v>2.94</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1138,7 +1141,7 @@
         <v>16.97</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1158,7 +1161,7 @@
         <v>17.24</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1178,7 +1181,7 @@
         <v>9.99</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1198,7 +1201,7 @@
         <v>20.12</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1218,7 +1221,7 @@
         <v>18.32</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1238,7 +1241,7 @@
         <v>6.97</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1258,7 +1261,7 @@
         <v>9.880000000000001</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1278,7 +1281,7 @@
         <v>17.48</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1298,7 +1301,7 @@
         <v>26.3</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1318,7 +1321,7 @@
         <v>25.49</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1338,7 +1341,7 @@
         <v>64.68000000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1358,7 +1361,7 @@
         <v>64.06999999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1378,7 +1381,7 @@
         <v>40.22</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1398,7 +1401,7 @@
         <v>63.34</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1418,7 +1421,7 @@
         <v>60.69</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J42">
         <v>60.69</v>
@@ -1438,7 +1441,7 @@
         <v>99.62</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1452,7 +1455,7 @@
         <v>106.65</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1466,7 +1469,7 @@
         <v>109.38</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1480,7 +1483,7 @@
         <v>105.69</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1494,7 +1497,7 @@
         <v>80.8</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1514,7 +1517,7 @@
         <v>60.69</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J48">
         <v>60.69</v>
@@ -1534,7 +1537,7 @@
         <v>99.62</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1548,7 +1551,7 @@
         <v>106.65</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1562,7 +1565,7 @@
         <v>109.38</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1576,7 +1579,7 @@
         <v>105.69</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1590,7 +1593,91 @@
         <v>80.8</v>
       </c>
       <c r="F53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>99.62</v>
+      </c>
+      <c r="F54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55">
+        <v>106.65</v>
+      </c>
+      <c r="F55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56">
+        <v>109.38</v>
+      </c>
+      <c r="F56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57">
+        <v>105.69</v>
+      </c>
+      <c r="F57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58">
+        <v>80.8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
         <v>59</v>
+      </c>
+      <c r="D59">
+        <v>101.37</v>
+      </c>
+      <c r="F59" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 6.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="63">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -55,6 +55,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>29 Mar -- 04 Apr 2020</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>22.43</v>
@@ -612,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>0.59</v>
@@ -629,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>62.29</v>
@@ -641,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -649,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>106.71</v>
@@ -661,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>167.14</v>
@@ -681,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>159</v>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>162.71</v>
@@ -721,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>139.57</v>
@@ -741,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>95.14</v>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>99</v>
@@ -781,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>98.70999999999999</v>
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>47.57</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>40.43</v>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -849,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>15.71</v>
@@ -861,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -869,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>22.29</v>
@@ -881,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -889,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>12.29</v>
@@ -901,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>10.57</v>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>5.29</v>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>8.140000000000001</v>
@@ -961,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>5.43</v>
@@ -981,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>6.86</v>
@@ -1001,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1009,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>6.43</v>
@@ -1021,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>6.29</v>
@@ -1041,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>4.43</v>
@@ -1061,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1081,7 +1087,7 @@
         <v>25.17</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -1101,7 +1107,7 @@
         <v>13.63</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1109,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>7.29</v>
@@ -1121,7 +1127,7 @@
         <v>2.94</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1129,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>25</v>
@@ -1141,7 +1147,7 @@
         <v>16.97</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1149,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>24.71</v>
@@ -1161,7 +1167,7 @@
         <v>17.24</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1169,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>17.29</v>
@@ -1181,7 +1187,7 @@
         <v>9.99</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>26.71</v>
@@ -1201,7 +1207,7 @@
         <v>20.12</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1209,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>31.14</v>
@@ -1221,7 +1227,7 @@
         <v>18.32</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1229,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>51.43</v>
@@ -1241,7 +1247,7 @@
         <v>6.97</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1249,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>57.14</v>
@@ -1261,7 +1267,7 @@
         <v>9.880000000000001</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1269,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>72.56999999999999</v>
@@ -1281,7 +1287,7 @@
         <v>17.48</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1289,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>76.86</v>
@@ -1301,7 +1307,7 @@
         <v>26.3</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1309,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>87.70999999999999</v>
@@ -1321,7 +1327,7 @@
         <v>25.49</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1329,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>108.57</v>
@@ -1341,7 +1347,7 @@
         <v>64.68000000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1349,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>114.86</v>
@@ -1361,7 +1367,7 @@
         <v>64.06999999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1369,7 +1375,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>94.70999999999999</v>
@@ -1381,7 +1387,7 @@
         <v>40.22</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1389,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>124.71</v>
@@ -1401,7 +1407,7 @@
         <v>63.34</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1409,7 +1415,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>166</v>
@@ -1421,7 +1427,7 @@
         <v>60.69</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J42">
         <v>60.69</v>
@@ -1435,13 +1441,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>145.43</v>
       </c>
       <c r="D43">
         <v>99.62</v>
       </c>
+      <c r="E43">
+        <v>45.81</v>
+      </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="J43">
+        <v>53.25</v>
+      </c>
+      <c r="K43">
+        <v>34.03</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1449,13 +1467,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44">
         <v>106.65</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1463,13 +1481,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>109.38</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1477,13 +1495,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46">
         <v>105.69</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1491,13 +1509,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D47">
         <v>80.8</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1505,7 +1523,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48">
         <v>166</v>
@@ -1517,167 +1535,275 @@
         <v>60.69</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J48">
-        <v>60.69</v>
+        <v>55.73</v>
       </c>
       <c r="K48">
-        <v>36.56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>34.87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C49">
+        <v>145.43</v>
       </c>
       <c r="D49">
         <v>99.62</v>
       </c>
+      <c r="E49">
+        <v>45.81</v>
+      </c>
       <c r="F49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="J49">
+        <v>53.25</v>
+      </c>
+      <c r="K49">
+        <v>34.03</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>106.65</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D51">
         <v>109.38</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52">
         <v>105.69</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53">
         <v>80.8</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C54">
+        <v>145.43</v>
       </c>
       <c r="D54">
         <v>99.62</v>
       </c>
+      <c r="E54">
+        <v>45.81</v>
+      </c>
       <c r="F54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="J54">
+        <v>51.76</v>
+      </c>
+      <c r="K54">
+        <v>33.52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D55">
         <v>106.65</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D56">
         <v>109.38</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D57">
         <v>105.69</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D58">
         <v>80.8</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D59">
         <v>101.37</v>
       </c>
       <c r="F59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60">
+        <v>106.65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61">
+        <v>109.38</v>
+      </c>
+      <c r="F61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62">
+        <v>105.69</v>
+      </c>
+      <c r="F62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63">
+        <v>80.8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
         <v>60</v>
+      </c>
+      <c r="D64">
+        <v>101.37</v>
+      </c>
+      <c r="F64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65">
+        <v>109.26</v>
+      </c>
+      <c r="F65" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 6.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="65">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>29 Mar -- 04 Apr 2020</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>22.43</v>
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>0.59</v>
@@ -635,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>62.29</v>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -655,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>106.71</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -675,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>167.14</v>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -695,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>159</v>
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>162.71</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -735,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>139.57</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>95.14</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>99</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>98.70999999999999</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>47.57</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>40.43</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -855,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>15.71</v>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -875,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>22.29</v>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -895,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>12.29</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>10.57</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -935,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>5.29</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>8.140000000000001</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>5.43</v>
@@ -987,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -995,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>6.86</v>
@@ -1007,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1015,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>6.43</v>
@@ -1027,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1035,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>6.29</v>
@@ -1047,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1055,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>4.43</v>
@@ -1067,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1075,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1087,7 +1093,7 @@
         <v>25.17</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1095,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -1107,7 +1113,7 @@
         <v>13.63</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1115,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>7.29</v>
@@ -1127,7 +1133,7 @@
         <v>2.94</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1135,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>25</v>
@@ -1147,7 +1153,7 @@
         <v>16.97</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1155,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>24.71</v>
@@ -1167,7 +1173,7 @@
         <v>17.24</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1175,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>17.29</v>
@@ -1187,7 +1193,7 @@
         <v>9.99</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1195,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>26.71</v>
@@ -1207,7 +1213,7 @@
         <v>20.12</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1215,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>31.14</v>
@@ -1227,7 +1233,7 @@
         <v>18.32</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1235,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>51.43</v>
@@ -1247,7 +1253,7 @@
         <v>6.97</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1255,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>57.14</v>
@@ -1267,7 +1273,7 @@
         <v>9.880000000000001</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1275,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>72.56999999999999</v>
@@ -1287,7 +1293,7 @@
         <v>17.48</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1295,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>76.86</v>
@@ -1307,7 +1313,7 @@
         <v>26.3</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1315,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>87.70999999999999</v>
@@ -1327,7 +1333,7 @@
         <v>25.49</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1335,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>108.57</v>
@@ -1347,7 +1353,7 @@
         <v>64.68000000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1355,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>114.86</v>
@@ -1367,7 +1373,7 @@
         <v>64.06999999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1375,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>94.70999999999999</v>
@@ -1387,7 +1393,7 @@
         <v>40.22</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1395,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>124.71</v>
@@ -1407,7 +1413,7 @@
         <v>63.34</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1415,25 +1421,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42">
-        <v>166</v>
+        <v>152.86</v>
       </c>
       <c r="D42">
         <v>105.31</v>
       </c>
       <c r="E42">
-        <v>60.69</v>
+        <v>47.55</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J42">
-        <v>60.69</v>
+        <v>47.55</v>
       </c>
       <c r="K42">
-        <v>36.56</v>
+        <v>31.11</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1441,25 +1447,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D43">
         <v>99.62</v>
       </c>
       <c r="E43">
-        <v>45.81</v>
+        <v>42.38</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J43">
-        <v>53.25</v>
+        <v>44.96</v>
       </c>
       <c r="K43">
-        <v>34.03</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1467,13 +1473,25 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C44">
+        <v>144.86</v>
       </c>
       <c r="D44">
         <v>106.65</v>
       </c>
+      <c r="E44">
+        <v>38.2</v>
+      </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J44">
+        <v>42.71</v>
+      </c>
+      <c r="K44">
+        <v>29.11</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1481,13 +1499,25 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C45">
+        <v>133.43</v>
       </c>
       <c r="D45">
         <v>109.38</v>
       </c>
+      <c r="E45">
+        <v>24.05</v>
+      </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J45">
+        <v>38.04</v>
+      </c>
+      <c r="K45">
+        <v>26.34</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1495,13 +1525,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D46">
         <v>105.69</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1509,13 +1539,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D47">
         <v>80.8</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1523,25 +1553,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48">
-        <v>166</v>
+        <v>152.86</v>
       </c>
       <c r="D48">
         <v>105.31</v>
       </c>
       <c r="E48">
-        <v>60.69</v>
+        <v>47.55</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J48">
-        <v>55.73</v>
+        <v>39.95</v>
       </c>
       <c r="K48">
-        <v>34.87</v>
+        <v>27.29</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1549,25 +1579,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D49">
         <v>99.62</v>
       </c>
       <c r="E49">
-        <v>45.81</v>
+        <v>42.38</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J49">
-        <v>53.25</v>
+        <v>40.35</v>
       </c>
       <c r="K49">
-        <v>34.03</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1575,13 +1605,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C50">
+        <v>144.86</v>
       </c>
       <c r="D50">
         <v>106.65</v>
       </c>
+      <c r="E50">
+        <v>38.2</v>
+      </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J50">
+        <v>40.04</v>
+      </c>
+      <c r="K50">
+        <v>27.52</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1589,13 +1631,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C51">
+        <v>133.43</v>
       </c>
       <c r="D51">
         <v>109.38</v>
       </c>
+      <c r="E51">
+        <v>24.05</v>
+      </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J51">
+        <v>38.04</v>
+      </c>
+      <c r="K51">
+        <v>26.34</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1603,13 +1657,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D52">
         <v>105.69</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1617,13 +1671,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <v>80.8</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1631,25 +1685,25 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D54">
         <v>99.62</v>
       </c>
       <c r="E54">
-        <v>45.81</v>
+        <v>42.38</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J54">
-        <v>51.76</v>
+        <v>38.53</v>
       </c>
       <c r="K54">
-        <v>33.52</v>
+        <v>26.73</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1657,13 +1711,25 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C55">
+        <v>144.86</v>
       </c>
       <c r="D55">
         <v>106.65</v>
       </c>
+      <c r="E55">
+        <v>38.2</v>
+      </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J55">
+        <v>38.49</v>
+      </c>
+      <c r="K55">
+        <v>26.69</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1671,13 +1737,25 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C56">
+        <v>133.43</v>
       </c>
       <c r="D56">
         <v>109.38</v>
       </c>
+      <c r="E56">
+        <v>24.05</v>
+      </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J56">
+        <v>37.18</v>
+      </c>
+      <c r="K56">
+        <v>25.9</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1685,13 +1763,13 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D57">
         <v>105.69</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1699,13 +1777,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D58">
         <v>80.8</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1713,13 +1791,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59">
         <v>101.37</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1727,13 +1805,25 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>144.86</v>
       </c>
       <c r="D60">
         <v>106.65</v>
       </c>
+      <c r="E60">
+        <v>38.2</v>
+      </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J60">
+        <v>37.27</v>
+      </c>
+      <c r="K60">
+        <v>25.94</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1741,13 +1831,25 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C61">
+        <v>133.43</v>
       </c>
       <c r="D61">
         <v>109.38</v>
       </c>
+      <c r="E61">
+        <v>24.05</v>
+      </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J61">
+        <v>36.25</v>
+      </c>
+      <c r="K61">
+        <v>25.33</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1755,13 +1857,13 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D62">
         <v>105.69</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1769,13 +1871,13 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D63">
         <v>80.8</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1783,27 +1885,123 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D64">
         <v>101.37</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D65">
         <v>109.26</v>
       </c>
       <c r="F65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66">
+        <v>133.43</v>
+      </c>
+      <c r="D66">
+        <v>103</v>
+      </c>
+      <c r="E66">
+        <v>30.43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>64</v>
+      </c>
+      <c r="J66">
+        <v>35.83</v>
+      </c>
+      <c r="K66">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67">
+        <v>98.42</v>
+      </c>
+      <c r="F67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68">
+        <v>72.37</v>
+      </c>
+      <c r="F68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69">
+        <v>91.67</v>
+      </c>
+      <c r="F69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
         <v>62</v>
+      </c>
+      <c r="D70">
+        <v>94.52</v>
+      </c>
+      <c r="F70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71">
+        <v>103.97</v>
+      </c>
+      <c r="F71" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 6.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="66">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>0.59</v>
@@ -653,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -673,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -693,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -713,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -733,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -753,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -773,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -813,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -853,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -873,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -893,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -913,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -933,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -953,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -973,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -993,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1013,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1053,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1073,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1093,7 +1096,7 @@
         <v>25.17</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1113,7 +1116,7 @@
         <v>13.63</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1133,7 +1136,7 @@
         <v>2.94</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1153,7 +1156,7 @@
         <v>16.97</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1173,7 +1176,7 @@
         <v>17.24</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1193,7 +1196,7 @@
         <v>9.99</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1213,7 +1216,7 @@
         <v>20.12</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1233,7 +1236,7 @@
         <v>18.32</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1253,7 +1256,7 @@
         <v>6.97</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1273,7 +1276,7 @@
         <v>9.880000000000001</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1293,7 +1296,7 @@
         <v>17.48</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1313,7 +1316,7 @@
         <v>26.3</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1333,7 +1336,7 @@
         <v>25.49</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1353,7 +1356,7 @@
         <v>64.68000000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1373,7 +1376,7 @@
         <v>64.06999999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1393,7 +1396,7 @@
         <v>40.22</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1413,7 +1416,7 @@
         <v>63.34</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1433,7 +1436,7 @@
         <v>47.55</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J42">
         <v>47.55</v>
@@ -1459,7 +1462,7 @@
         <v>42.38</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J43">
         <v>44.96</v>
@@ -1485,7 +1488,7 @@
         <v>38.2</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J44">
         <v>42.71</v>
@@ -1511,7 +1514,7 @@
         <v>24.05</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J45">
         <v>38.04</v>
@@ -1531,7 +1534,7 @@
         <v>105.69</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1545,7 +1548,7 @@
         <v>80.8</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1565,7 +1568,7 @@
         <v>47.55</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J48">
         <v>39.95</v>
@@ -1591,7 +1594,7 @@
         <v>42.38</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J49">
         <v>40.35</v>
@@ -1617,7 +1620,7 @@
         <v>38.2</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J50">
         <v>40.04</v>
@@ -1643,7 +1646,7 @@
         <v>24.05</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J51">
         <v>38.04</v>
@@ -1663,7 +1666,7 @@
         <v>105.69</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1677,7 +1680,7 @@
         <v>80.8</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1697,7 +1700,7 @@
         <v>42.38</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J54">
         <v>38.53</v>
@@ -1723,7 +1726,7 @@
         <v>38.2</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J55">
         <v>38.49</v>
@@ -1749,7 +1752,7 @@
         <v>24.05</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J56">
         <v>37.18</v>
@@ -1769,7 +1772,7 @@
         <v>105.69</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1783,7 +1786,7 @@
         <v>80.8</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1797,7 +1800,7 @@
         <v>101.37</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1817,7 +1820,7 @@
         <v>38.2</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J60">
         <v>37.27</v>
@@ -1843,7 +1846,7 @@
         <v>24.05</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J61">
         <v>36.25</v>
@@ -1863,7 +1866,7 @@
         <v>105.69</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1877,7 +1880,7 @@
         <v>80.8</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1891,7 +1894,7 @@
         <v>101.37</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1905,7 +1908,7 @@
         <v>109.26</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1925,7 +1928,7 @@
         <v>30.43</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J66">
         <v>35.83</v>
@@ -1945,7 +1948,7 @@
         <v>98.42</v>
       </c>
       <c r="F67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1959,7 +1962,7 @@
         <v>72.37</v>
       </c>
       <c r="F68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1973,7 +1976,7 @@
         <v>91.67</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1987,7 +1990,7 @@
         <v>94.52</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2001,7 +2004,91 @@
         <v>103.97</v>
       </c>
       <c r="F71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72">
+        <v>98.42</v>
+      </c>
+      <c r="F72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73">
+        <v>72.37</v>
+      </c>
+      <c r="F73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74">
+        <v>91.67</v>
+      </c>
+      <c r="F74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75">
+        <v>94.52</v>
+      </c>
+      <c r="F75" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76">
+        <v>103.97</v>
+      </c>
+      <c r="F76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
         <v>64</v>
+      </c>
+      <c r="D77">
+        <v>113.45</v>
+      </c>
+      <c r="F77" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 6.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="68">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
     <t>29 Mar -- 04 Apr 2020</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
   </si>
   <si>
     <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>22.43</v>
@@ -627,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>0.59</v>
@@ -644,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>62.29</v>
@@ -656,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -664,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>106.71</v>
@@ -676,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -684,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>167.14</v>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -704,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>159</v>
@@ -716,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -724,7 +730,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>162.71</v>
@@ -736,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -744,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>139.57</v>
@@ -756,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -764,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>95.14</v>
@@ -776,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>99</v>
@@ -796,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>98.70999999999999</v>
@@ -816,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>47.57</v>
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -844,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>40.43</v>
@@ -856,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>15.71</v>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -884,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>22.29</v>
@@ -896,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -904,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>12.29</v>
@@ -916,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>10.57</v>
@@ -936,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,7 +950,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>5.29</v>
@@ -956,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>8.140000000000001</v>
@@ -976,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,7 +990,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>5.43</v>
@@ -996,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>6.86</v>
@@ -1016,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1024,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>6.43</v>
@@ -1036,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1044,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>6.29</v>
@@ -1056,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1064,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>4.43</v>
@@ -1076,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1084,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1096,7 +1102,7 @@
         <v>25.17</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1104,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -1116,7 +1122,7 @@
         <v>13.63</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1124,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>7.29</v>
@@ -1136,7 +1142,7 @@
         <v>2.94</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1144,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>25</v>
@@ -1156,7 +1162,7 @@
         <v>16.97</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1164,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>24.71</v>
@@ -1176,7 +1182,7 @@
         <v>17.24</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1184,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>17.29</v>
@@ -1196,7 +1202,7 @@
         <v>9.99</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1204,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>26.71</v>
@@ -1216,7 +1222,7 @@
         <v>20.12</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1224,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>31.14</v>
@@ -1236,7 +1242,7 @@
         <v>18.32</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1244,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>51.43</v>
@@ -1256,7 +1262,7 @@
         <v>6.97</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1264,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>57.14</v>
@@ -1276,7 +1282,7 @@
         <v>9.880000000000001</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1284,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>72.56999999999999</v>
@@ -1296,7 +1302,7 @@
         <v>17.48</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1304,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>76.86</v>
@@ -1316,7 +1322,7 @@
         <v>26.3</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1324,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>87.70999999999999</v>
@@ -1336,7 +1342,7 @@
         <v>25.49</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1344,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>108.57</v>
@@ -1356,7 +1362,7 @@
         <v>64.68000000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1364,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>114.86</v>
@@ -1376,7 +1382,7 @@
         <v>64.06999999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1384,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>94.70999999999999</v>
@@ -1396,7 +1402,7 @@
         <v>40.22</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1404,7 +1410,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>124.71</v>
@@ -1416,7 +1422,7 @@
         <v>63.34</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1424,7 +1430,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>152.86</v>
@@ -1436,7 +1442,7 @@
         <v>47.55</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J42">
         <v>47.55</v>
@@ -1450,7 +1456,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>142</v>
@@ -1462,7 +1468,7 @@
         <v>42.38</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J43">
         <v>44.96</v>
@@ -1476,7 +1482,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>144.86</v>
@@ -1488,7 +1494,7 @@
         <v>38.2</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J44">
         <v>42.71</v>
@@ -1502,25 +1508,25 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D45">
         <v>109.38</v>
       </c>
       <c r="E45">
-        <v>24.05</v>
+        <v>28.62</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J45">
-        <v>38.04</v>
+        <v>39.19</v>
       </c>
       <c r="K45">
-        <v>26.34</v>
+        <v>27.02</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1528,13 +1534,25 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C46">
+        <v>106</v>
       </c>
       <c r="D46">
         <v>105.69</v>
       </c>
+      <c r="E46">
+        <v>0.31</v>
+      </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J46">
+        <v>31.41</v>
+      </c>
+      <c r="K46">
+        <v>21.67</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1542,13 +1560,25 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C47">
+        <v>76.86</v>
       </c>
       <c r="D47">
         <v>80.8</v>
       </c>
+      <c r="E47">
+        <v>3.95</v>
+      </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J47">
+        <v>26.83</v>
+      </c>
+      <c r="K47">
+        <v>18.92</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1556,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48">
         <v>152.86</v>
@@ -1568,13 +1598,13 @@
         <v>47.55</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J48">
-        <v>39.95</v>
+        <v>29.79</v>
       </c>
       <c r="K48">
-        <v>27.29</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1582,7 +1612,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>142</v>
@@ -1594,13 +1624,13 @@
         <v>42.38</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J49">
-        <v>40.35</v>
+        <v>31.37</v>
       </c>
       <c r="K49">
-        <v>27.72</v>
+        <v>21.81</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1608,7 +1638,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>144.86</v>
@@ -1620,13 +1650,13 @@
         <v>38.2</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J50">
-        <v>40.04</v>
+        <v>32.13</v>
       </c>
       <c r="K50">
-        <v>27.52</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1634,25 +1664,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D51">
         <v>109.38</v>
       </c>
       <c r="E51">
-        <v>24.05</v>
+        <v>28.62</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J51">
-        <v>38.04</v>
+        <v>31.78</v>
       </c>
       <c r="K51">
-        <v>26.34</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1660,13 +1690,25 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C52">
+        <v>106</v>
       </c>
       <c r="D52">
         <v>105.69</v>
       </c>
+      <c r="E52">
+        <v>0.31</v>
+      </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J52">
+        <v>28.92</v>
+      </c>
+      <c r="K52">
+        <v>20.17</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1674,13 +1716,25 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C53">
+        <v>76.86</v>
       </c>
       <c r="D53">
         <v>80.8</v>
       </c>
+      <c r="E53">
+        <v>3.95</v>
+      </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J53">
+        <v>26.83</v>
+      </c>
+      <c r="K53">
+        <v>18.92</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1688,7 +1742,7 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>142</v>
@@ -1700,13 +1754,13 @@
         <v>42.38</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J54">
-        <v>38.53</v>
+        <v>28.03</v>
       </c>
       <c r="K54">
-        <v>26.73</v>
+        <v>19.76</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1714,7 +1768,7 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>144.86</v>
@@ -1726,13 +1780,13 @@
         <v>38.2</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J55">
-        <v>38.49</v>
+        <v>28.76</v>
       </c>
       <c r="K55">
-        <v>26.69</v>
+        <v>20.23</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1740,25 +1794,25 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D56">
         <v>109.38</v>
       </c>
       <c r="E56">
-        <v>24.05</v>
+        <v>28.62</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J56">
-        <v>37.18</v>
+        <v>28.75</v>
       </c>
       <c r="K56">
-        <v>25.9</v>
+        <v>20.26</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1766,13 +1820,25 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>106</v>
       </c>
       <c r="D57">
         <v>105.69</v>
       </c>
+      <c r="E57">
+        <v>0.31</v>
+      </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J57">
+        <v>26.97</v>
+      </c>
+      <c r="K57">
+        <v>19.01</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1780,13 +1846,25 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>76.86</v>
       </c>
       <c r="D58">
         <v>80.8</v>
       </c>
+      <c r="E58">
+        <v>3.95</v>
+      </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J58">
+        <v>25.62</v>
+      </c>
+      <c r="K58">
+        <v>18.2</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1794,13 +1872,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D59">
         <v>101.37</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1808,7 +1886,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>144.86</v>
@@ -1820,13 +1898,13 @@
         <v>38.2</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J60">
-        <v>37.27</v>
+        <v>26.32</v>
       </c>
       <c r="K60">
-        <v>25.94</v>
+        <v>18.65</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1834,25 +1912,25 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D61">
         <v>109.38</v>
       </c>
       <c r="E61">
-        <v>24.05</v>
+        <v>28.62</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J61">
-        <v>36.25</v>
+        <v>26.44</v>
       </c>
       <c r="K61">
-        <v>25.33</v>
+        <v>18.76</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1860,13 +1938,25 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>106</v>
       </c>
       <c r="D62">
         <v>105.69</v>
       </c>
+      <c r="E62">
+        <v>0.31</v>
+      </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J62">
+        <v>25.13</v>
+      </c>
+      <c r="K62">
+        <v>17.84</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1874,13 +1964,25 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>76.86</v>
       </c>
       <c r="D63">
         <v>80.8</v>
       </c>
+      <c r="E63">
+        <v>3.95</v>
+      </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J63">
+        <v>24.12</v>
+      </c>
+      <c r="K63">
+        <v>17.23</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1888,13 +1990,13 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D64">
         <v>101.37</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1902,13 +2004,13 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D65">
         <v>109.26</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1916,25 +2018,25 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D66">
         <v>103</v>
       </c>
       <c r="E66">
-        <v>30.43</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J66">
-        <v>35.83</v>
+        <v>24.62</v>
       </c>
       <c r="K66">
-        <v>25.15</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1942,13 +2044,25 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C67">
+        <v>106</v>
       </c>
       <c r="D67">
         <v>98.42</v>
       </c>
+      <c r="E67">
+        <v>7.58</v>
+      </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J67">
+        <v>23.88</v>
+      </c>
+      <c r="K67">
+        <v>17.15</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1956,13 +2070,25 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C68">
+        <v>76.86</v>
       </c>
       <c r="D68">
         <v>72.37</v>
       </c>
+      <c r="E68">
+        <v>4.48</v>
+      </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J68">
+        <v>23.07</v>
+      </c>
+      <c r="K68">
+        <v>16.68</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1970,13 +2096,13 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D69">
         <v>91.67</v>
       </c>
       <c r="F69" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1984,13 +2110,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D70">
         <v>94.52</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1998,13 +2124,13 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D71">
         <v>103.97</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2012,13 +2138,25 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C72">
+        <v>106</v>
       </c>
       <c r="D72">
         <v>98.42</v>
       </c>
+      <c r="E72">
+        <v>7.58</v>
+      </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J72">
+        <v>22.45</v>
+      </c>
+      <c r="K72">
+        <v>16.3</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2026,13 +2164,25 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C73">
+        <v>76.86</v>
       </c>
       <c r="D73">
         <v>72.37</v>
       </c>
+      <c r="E73">
+        <v>4.48</v>
+      </c>
       <c r="F73" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J73">
+        <v>21.76</v>
+      </c>
+      <c r="K73">
+        <v>15.89</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2040,13 +2190,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D74">
         <v>91.67</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2054,13 +2204,13 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D75">
         <v>94.52</v>
       </c>
       <c r="F75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2068,13 +2218,13 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D76">
         <v>103.97</v>
       </c>
       <c r="F76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2082,13 +2232,109 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D77">
         <v>113.45</v>
       </c>
       <c r="F77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78">
+        <v>76.86</v>
+      </c>
+      <c r="D78">
+        <v>72.37</v>
+      </c>
+      <c r="E78">
+        <v>4.48</v>
+      </c>
+      <c r="F78" t="s">
+        <v>67</v>
+      </c>
+      <c r="J78">
+        <v>21.12</v>
+      </c>
+      <c r="K78">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79">
+        <v>91.67</v>
+      </c>
+      <c r="F79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80">
+        <v>94.52</v>
+      </c>
+      <c r="F80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81">
+        <v>103.97</v>
+      </c>
+      <c r="F81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
         <v>65</v>
+      </c>
+      <c r="D82">
+        <v>113.78</v>
+      </c>
+      <c r="F82" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83">
+        <v>106.62</v>
+      </c>
+      <c r="F83" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 6.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="71">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-02-13</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>29 Mar -- 04 Apr 2020</t>
   </si>
   <si>
@@ -215,6 +218,12 @@
   </si>
   <si>
     <t>14 Mar -- 20 Mar 2021</t>
+  </si>
+  <si>
+    <t>21 Mar -- 27 Mar 2021</t>
+  </si>
+  <si>
+    <t>28 Mar -- 03 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -575,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>22.43</v>
@@ -633,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>0.59</v>
@@ -650,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>62.29</v>
@@ -662,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>106.71</v>
@@ -682,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -690,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>167.14</v>
@@ -702,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -710,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>159</v>
@@ -722,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -730,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>162.71</v>
@@ -742,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -750,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>139.57</v>
@@ -762,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -770,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>95.14</v>
@@ -782,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -790,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>99</v>
@@ -802,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -810,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>98.70999999999999</v>
@@ -822,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>47.57</v>
@@ -842,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>40.43</v>
@@ -862,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>15.71</v>
@@ -882,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -890,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>22.29</v>
@@ -902,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -910,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>12.29</v>
@@ -922,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -930,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>10.57</v>
@@ -942,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>5.29</v>
@@ -962,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>8.140000000000001</v>
@@ -982,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -990,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>5.43</v>
@@ -1002,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1010,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>6.86</v>
@@ -1022,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1030,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>6.43</v>
@@ -1042,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1050,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>6.29</v>
@@ -1062,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1070,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>4.43</v>
@@ -1082,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1090,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1102,7 +1111,7 @@
         <v>25.17</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1110,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -1122,7 +1131,7 @@
         <v>13.63</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1130,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>7.29</v>
@@ -1142,7 +1151,7 @@
         <v>2.94</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1150,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>25</v>
@@ -1162,7 +1171,7 @@
         <v>16.97</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1170,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>24.71</v>
@@ -1182,7 +1191,7 @@
         <v>17.24</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1190,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>17.29</v>
@@ -1202,7 +1211,7 @@
         <v>9.99</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1210,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>26.71</v>
@@ -1222,7 +1231,7 @@
         <v>20.12</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1230,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>31.14</v>
@@ -1242,7 +1251,7 @@
         <v>18.32</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1250,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>51.43</v>
@@ -1262,7 +1271,7 @@
         <v>6.97</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1270,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>57.14</v>
@@ -1282,7 +1291,7 @@
         <v>9.880000000000001</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1290,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>72.56999999999999</v>
@@ -1302,7 +1311,7 @@
         <v>17.48</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1310,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>76.86</v>
@@ -1322,7 +1331,7 @@
         <v>26.3</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1330,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>87.70999999999999</v>
@@ -1342,7 +1351,7 @@
         <v>25.49</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1350,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>108.57</v>
@@ -1362,7 +1371,7 @@
         <v>64.68000000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1370,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>114.86</v>
@@ -1382,7 +1391,7 @@
         <v>64.06999999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1390,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>94.70999999999999</v>
@@ -1402,7 +1411,7 @@
         <v>40.22</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1410,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>124.71</v>
@@ -1422,7 +1431,7 @@
         <v>63.34</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1430,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>152.86</v>
@@ -1442,7 +1451,7 @@
         <v>47.55</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J42">
         <v>47.55</v>
@@ -1456,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>142</v>
@@ -1468,7 +1477,7 @@
         <v>42.38</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J43">
         <v>44.96</v>
@@ -1482,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>144.86</v>
@@ -1494,7 +1503,7 @@
         <v>38.2</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J44">
         <v>42.71</v>
@@ -1508,7 +1517,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>138</v>
@@ -1520,7 +1529,7 @@
         <v>28.62</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J45">
         <v>39.19</v>
@@ -1534,7 +1543,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>106</v>
@@ -1546,7 +1555,7 @@
         <v>0.31</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J46">
         <v>31.41</v>
@@ -1560,7 +1569,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>76.86</v>
@@ -1572,7 +1581,7 @@
         <v>3.95</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J47">
         <v>26.83</v>
@@ -1586,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <v>152.86</v>
@@ -1598,7 +1607,7 @@
         <v>47.55</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J48">
         <v>29.79</v>
@@ -1612,7 +1621,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49">
         <v>142</v>
@@ -1624,7 +1633,7 @@
         <v>42.38</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J49">
         <v>31.37</v>
@@ -1638,7 +1647,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>144.86</v>
@@ -1650,7 +1659,7 @@
         <v>38.2</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J50">
         <v>32.13</v>
@@ -1664,7 +1673,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51">
         <v>138</v>
@@ -1676,7 +1685,7 @@
         <v>28.62</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J51">
         <v>31.78</v>
@@ -1690,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>106</v>
@@ -1702,7 +1711,7 @@
         <v>0.31</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J52">
         <v>28.92</v>
@@ -1716,7 +1725,7 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53">
         <v>76.86</v>
@@ -1728,7 +1737,7 @@
         <v>3.95</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J53">
         <v>26.83</v>
@@ -1742,7 +1751,7 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54">
         <v>142</v>
@@ -1754,7 +1763,7 @@
         <v>42.38</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J54">
         <v>28.03</v>
@@ -1768,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55">
         <v>144.86</v>
@@ -1780,7 +1789,7 @@
         <v>38.2</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J55">
         <v>28.76</v>
@@ -1794,7 +1803,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56">
         <v>138</v>
@@ -1806,7 +1815,7 @@
         <v>28.62</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J56">
         <v>28.75</v>
@@ -1820,7 +1829,7 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57">
         <v>106</v>
@@ -1832,7 +1841,7 @@
         <v>0.31</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J57">
         <v>26.97</v>
@@ -1846,7 +1855,7 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58">
         <v>76.86</v>
@@ -1858,7 +1867,7 @@
         <v>3.95</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J58">
         <v>25.62</v>
@@ -1872,13 +1881,25 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>56.14</v>
       </c>
       <c r="D59">
         <v>101.37</v>
       </c>
+      <c r="E59">
+        <v>45.23</v>
+      </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J59">
+        <v>26.71</v>
+      </c>
+      <c r="K59">
+        <v>21.66</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1886,7 +1907,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60">
         <v>144.86</v>
@@ -1898,13 +1919,13 @@
         <v>38.2</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J60">
-        <v>26.32</v>
+        <v>27.31</v>
       </c>
       <c r="K60">
-        <v>18.65</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1912,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61">
         <v>138</v>
@@ -1924,13 +1945,13 @@
         <v>28.62</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J61">
-        <v>26.44</v>
+        <v>27.38</v>
       </c>
       <c r="K61">
-        <v>18.76</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1938,7 +1959,7 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62">
         <v>106</v>
@@ -1950,13 +1971,13 @@
         <v>0.31</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J62">
-        <v>25.13</v>
+        <v>26.09</v>
       </c>
       <c r="K62">
-        <v>17.84</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1964,7 +1985,7 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63">
         <v>76.86</v>
@@ -1976,13 +1997,13 @@
         <v>3.95</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J63">
-        <v>24.12</v>
+        <v>25.08</v>
       </c>
       <c r="K63">
-        <v>17.23</v>
+        <v>20.11</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1990,13 +2011,25 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>56.14</v>
       </c>
       <c r="D64">
         <v>101.37</v>
       </c>
+      <c r="E64">
+        <v>45.23</v>
+      </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J64">
+        <v>25.96</v>
+      </c>
+      <c r="K64">
+        <v>22.74</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2004,13 +2037,13 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D65">
         <v>109.26</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2018,7 +2051,7 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C66">
         <v>138</v>
@@ -2030,13 +2063,13 @@
         <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J66">
-        <v>24.62</v>
+        <v>26.33</v>
       </c>
       <c r="K66">
-        <v>17.6</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2044,7 +2077,7 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C67">
         <v>106</v>
@@ -2056,13 +2089,13 @@
         <v>7.58</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J67">
-        <v>23.88</v>
+        <v>25.58</v>
       </c>
       <c r="K67">
-        <v>17.15</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2070,7 +2103,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C68">
         <v>76.86</v>
@@ -2082,13 +2115,13 @@
         <v>4.48</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J68">
-        <v>23.07</v>
+        <v>24.77</v>
       </c>
       <c r="K68">
-        <v>16.68</v>
+        <v>21.59</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2096,13 +2129,25 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C69">
+        <v>56.14</v>
       </c>
       <c r="D69">
         <v>91.67</v>
       </c>
+      <c r="E69">
+        <v>35.53</v>
+      </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J69">
+        <v>25.17</v>
+      </c>
+      <c r="K69">
+        <v>23.14</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2110,13 +2155,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D70">
         <v>94.52</v>
       </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2124,13 +2169,13 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D71">
         <v>103.97</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2138,7 +2183,7 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C72">
         <v>106</v>
@@ -2150,13 +2195,13 @@
         <v>7.58</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J72">
-        <v>22.45</v>
+        <v>24.54</v>
       </c>
       <c r="K72">
-        <v>16.3</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2164,7 +2209,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C73">
         <v>76.86</v>
@@ -2176,13 +2221,13 @@
         <v>4.48</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J73">
-        <v>21.76</v>
+        <v>23.85</v>
       </c>
       <c r="K73">
-        <v>15.89</v>
+        <v>21.99</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2190,13 +2235,25 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C74">
+        <v>56.14</v>
       </c>
       <c r="D74">
         <v>91.67</v>
       </c>
+      <c r="E74">
+        <v>35.53</v>
+      </c>
       <c r="F74" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J74">
+        <v>24.24</v>
+      </c>
+      <c r="K74">
+        <v>23.36</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2204,13 +2261,13 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D75">
         <v>94.52</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2218,13 +2275,13 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D76">
         <v>103.97</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2232,13 +2289,13 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D77">
         <v>113.45</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2246,7 +2303,7 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C78">
         <v>76.86</v>
@@ -2258,13 +2315,13 @@
         <v>4.48</v>
       </c>
       <c r="F78" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J78">
-        <v>21.12</v>
+        <v>23.6</v>
       </c>
       <c r="K78">
-        <v>15.52</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2272,13 +2329,25 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C79">
+        <v>56.14</v>
       </c>
       <c r="D79">
         <v>91.67</v>
       </c>
+      <c r="E79">
+        <v>35.53</v>
+      </c>
       <c r="F79" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J79">
+        <v>23.98</v>
+      </c>
+      <c r="K79">
+        <v>24.06</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2286,13 +2355,13 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D80">
         <v>94.52</v>
       </c>
       <c r="F80" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2300,13 +2369,13 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D81">
         <v>103.97</v>
       </c>
       <c r="F81" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2314,13 +2383,13 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D82">
         <v>113.78</v>
       </c>
       <c r="F82" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2328,13 +2397,97 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D83">
         <v>106.62</v>
       </c>
       <c r="F83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84">
+        <v>94.52</v>
+      </c>
+      <c r="F84" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85">
+        <v>103.97</v>
+      </c>
+      <c r="F85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86">
+        <v>113.78</v>
+      </c>
+      <c r="F86" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
         <v>67</v>
+      </c>
+      <c r="D87">
+        <v>106.62</v>
+      </c>
+      <c r="F87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88">
+        <v>122.04</v>
+      </c>
+      <c r="F88" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89">
+        <v>99.62</v>
+      </c>
+      <c r="F89" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
